--- a/public/CBEN_PlayOps_Framework_Finale.xlsx
+++ b/public/CBEN_PlayOps_Framework_Finale.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="HD0a+g0HAyWaDAdZfwNkNuFksXHLUyrYdjxGyeuIYlA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="vxnlcH4ewDZEYyyYwqEblIhl1pyu+W8y7Q9dm8ozqss="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="317">
   <si>
     <t>Column</t>
   </si>
@@ -792,6 +792,90 @@
     <t>Run Retrospective Builder (reflective task) (Communication Product)</t>
   </si>
   <si>
+    <t>People &amp; Organizational</t>
+  </si>
+  <si>
+    <t>Planning &amp; Organization</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Choose correct pre-day tasks to prepare new hire workspace.</t>
+  </si>
+  <si>
+    <t>Task Sequencing / Checklist Challenge</t>
+  </si>
+  <si>
+    <t>L1 acc&lt;0.85 / L2 acc≥0.90 / L3 acc≥0.95 t≤90</t>
+  </si>
+  <si>
+    <t>Communication &amp; Collaboration</t>
+  </si>
+  <si>
+    <t>Team Connection</t>
+  </si>
+  <si>
+    <t>Match each scenario to best communication channel (Teams, Chat, Email).</t>
+  </si>
+  <si>
+    <t>Role-Based Scenario Game</t>
+  </si>
+  <si>
+    <t>Input → Choice → Feedback → Re-attempt</t>
+  </si>
+  <si>
+    <t>L1 acc&lt;0.85 / L2 acc≥0.90 / L3 acc≥0.95 t≤60</t>
+  </si>
+  <si>
+    <t>Case Simulation</t>
+  </si>
+  <si>
+    <t>Learning &amp; Development</t>
+  </si>
+  <si>
+    <t>Learning Agility</t>
+  </si>
+  <si>
+    <t>Coaching &amp; Mentorship</t>
+  </si>
+  <si>
+    <t>Identify which support resource best helps the new hire.</t>
+  </si>
+  <si>
+    <t>Decision-Tree Challenge</t>
+  </si>
+  <si>
+    <t>Input → Select → Feedback → Iterate</t>
+  </si>
+  <si>
+    <t>L1 acc&lt;0.80 / L2 acc≥0.90 / L3 acc≥0.95 t≤75</t>
+  </si>
+  <si>
+    <t>Mentorship Simulation</t>
+  </si>
+  <si>
+    <t>Growth &amp; Self-Reflection</t>
+  </si>
+  <si>
+    <t>Growth Mindset</t>
+  </si>
+  <si>
+    <t>Feedback &amp; Reflection</t>
+  </si>
+  <si>
+    <t>Choose correct feedback action after performance review.</t>
+  </si>
+  <si>
+    <t>Scenario Response Game</t>
+  </si>
+  <si>
+    <t>Input → Choice → Feedback → Submit</t>
+  </si>
+  <si>
+    <t>Feedback Simulation</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -841,6 +925,51 @@
   </si>
   <si>
     <t>Proof Receipt – Mastery Verified</t>
+  </si>
+  <si>
+    <t>Missed or incomplete preparation steps.</t>
+  </si>
+  <si>
+    <t>acc&lt;0.85 or time&gt;90s</t>
+  </si>
+  <si>
+    <t>Completes all setup steps accurately and on time.</t>
+  </si>
+  <si>
+    <t>acc≥0.90 t≤90s</t>
+  </si>
+  <si>
+    <t>Anticipates onboarding needs ahead of schedule.</t>
+  </si>
+  <si>
+    <t>acc≥0.95 t≤75s</t>
+  </si>
+  <si>
+    <t>Misused channels or unclear messages.</t>
+  </si>
+  <si>
+    <t>Selects proper channels and clear messaging.</t>
+  </si>
+  <si>
+    <t>Adapts communication to multiple audiences flawlessly.</t>
+  </si>
+  <si>
+    <t>Struggles to identify correct mentoring resources.</t>
+  </si>
+  <si>
+    <t>Accurately matches resources to scenarios.</t>
+  </si>
+  <si>
+    <t>Demonstrates proactive resource discovery.</t>
+  </si>
+  <si>
+    <t>Provides incomplete or reactive feedback.</t>
+  </si>
+  <si>
+    <t>Gives balanced and actionable feedback.</t>
+  </si>
+  <si>
+    <t>Models continuous learning through reflective dialogue.</t>
   </si>
 </sst>
 </file>
@@ -8799,48 +8928,120 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
@@ -18983,28 +19184,6 @@
       <c r="G951" s="5"/>
       <c r="H951" s="5"/>
       <c r="I951" s="5"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="5"/>
-      <c r="B952" s="5"/>
-      <c r="C952" s="5"/>
-      <c r="D952" s="5"/>
-      <c r="E952" s="5"/>
-      <c r="F952" s="5"/>
-      <c r="G952" s="5"/>
-      <c r="H952" s="5"/>
-      <c r="I952" s="5"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="5"/>
-      <c r="B953" s="5"/>
-      <c r="C953" s="5"/>
-      <c r="D953" s="5"/>
-      <c r="E953" s="5"/>
-      <c r="F953" s="5"/>
-      <c r="G953" s="5"/>
-      <c r="H953" s="5"/>
-      <c r="I953" s="5"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -19038,19 +19217,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
@@ -19058,19 +19237,19 @@
         <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="E2" s="11">
         <v>100.0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
@@ -19078,19 +19257,19 @@
         <v>56</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E3" s="11">
         <v>250.0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
@@ -19098,19 +19277,19 @@
         <v>56</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E4" s="11">
         <v>500.0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -19118,19 +19297,19 @@
         <v>93</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="E5" s="11">
         <v>100.0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -19138,19 +19317,19 @@
         <v>93</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E6" s="11">
         <v>250.0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7">
@@ -19158,19 +19337,19 @@
         <v>93</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E7" s="11">
         <v>500.0</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -19178,19 +19357,19 @@
         <v>129</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="E8" s="11">
         <v>100.0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -19198,19 +19377,19 @@
         <v>129</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E9" s="11">
         <v>250.0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10">
@@ -19218,19 +19397,19 @@
         <v>129</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E10" s="11">
         <v>500.0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -19238,19 +19417,19 @@
         <v>162</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="E11" s="11">
         <v>100.0</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12">
@@ -19258,19 +19437,19 @@
         <v>162</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E12" s="11">
         <v>250.0</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13">
@@ -19278,116 +19457,260 @@
         <v>162</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E13" s="11">
         <v>500.0</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
@@ -19402,25 +19725,15 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -19431,8 +19744,18 @@
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="C43" s="5"/>
@@ -25132,18 +25455,6 @@
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
       <c r="F992" s="5"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="5"/>
-      <c r="C993" s="5"/>
-      <c r="D993" s="5"/>
-      <c r="F993" s="5"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="5"/>
-      <c r="C994" s="5"/>
-      <c r="D994" s="5"/>
-      <c r="F994" s="5"/>
     </row>
   </sheetData>
   <printOptions/>
